--- a/biology/Zoologie/Circaète_Jean-le-Blanc/Circaète_Jean-le-Blanc.xlsx
+++ b/biology/Zoologie/Circaète_Jean-le-Blanc/Circaète_Jean-le-Blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Circa%C3%A8te_Jean-le-Blanc</t>
+          <t>Circaète_Jean-le-Blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circaetus gallicus
 Le Circaète Jean-le-Blanc (Circaetus gallicus) est une espèce de rapaces spécialisée dans la chasse aux reptiles, principalement les serpents.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Circa%C3%A8te_Jean-le-Blanc</t>
+          <t>Circaète_Jean-le-Blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Circaète Jean-le-Blanc est un rapace de grande taille, mesurant de 65 à 70 cm de longueur pour 1,70 à 1,85 m d'envergure et une masse allant de 1,5 à 3 kg (chez les plus grandes femelles).
-Il a le dessus des ailes brun et le dessous blanc. Le corps est parsemé de taches colorées, de couleur et densité variables suivant les individus (entre beige clair et marron foncé). Ces touches de couleur forment des lignes parallèles sous les ailes et trois barres sous la queue[1].
+Il a le dessus des ailes brun et le dessous blanc. Le corps est parsemé de taches colorées, de couleur et densité variables suivant les individus (entre beige clair et marron foncé). Ces touches de couleur forment des lignes parallèles sous les ailes et trois barres sous la queue.
 Une bavette plus sombre s'étend du menton à la poitrine : d'après les spécialistes il n'y a pas de réel dimorphisme sexuel au niveau du plumage, mais généralement les femelles ont un plastron plutôt foncé, le mâle arborant une poitrine plus claire, parsemée de flammèches verticales sombres.
 La tête est plutôt large, ronde, avec un bec court et des grands yeux jaunes, ce qui lui donne un peu un air de chouette. En fait, la tête du Circaète diffère de celle des autres rapaces diurnes : les yeux sont plus gros et dirigés vers l'avant, ce qui lui confère une très bonne vision binoculaire.
 </t>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Circa%C3%A8te_Jean-le-Blanc</t>
+          <t>Circaète_Jean-le-Blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Vol</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Circaète Jean-le-Blanc est capable de vol stationnaire appelé également « vol du Saint-Esprit », il a un vol puissant et majestueux, planant au-dessus des montagnes ou le long des collines, en laissant fréquemment pendre ses pattes, et baissant la tête pour regarder au sol et chercher quelque proie.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Circa%C3%A8te_Jean-le-Blanc</t>
+          <t>Circaète_Jean-le-Blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Répandu en Eurasie et dans le Nord-Ouest de l'Afrique, le Circaète est présent en Europe uniquement au sud du 55e parallèle.
 Migrateur au long cours, il hiverne en Afrique (du Sénégal à l'Éthiopie). En France, ce visiteur d'été est plus fréquent dans le tiers méridional du pays.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Circa%C3%A8te_Jean-le-Blanc</t>
+          <t>Circaète_Jean-le-Blanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Oiseau typique des climats chauds à faibles précipitations, il niche dans des milieux boisés ouverts qui alternent avec de grandes clairières ainsi que dans des zones sablonneuses, soit au niveau de la mer, soit sur des sommets de moins de 2 000 mètres d'altitude.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Circa%C3%A8te_Jean-le-Blanc</t>
+          <t>Circaète_Jean-le-Blanc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,11 +662,13 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime alimentaire est principalement composé de serpents.
 La technique de chasse du Circaète est particulière : d'un vol plané, très lent, il survole une étendue de terrain dégagée, en scrutant le sol, à une hauteur moyenne (entre 50 et 200 mètres), et effectue à certains endroits des phases de vol stationnaire, de quelques secondes à plusieurs minutes, appelé « vol du Saint-Esprit ».
-Pour cela il s'arrête simplement sur place en étendant ses ailes, face au vent, en régulant constamment les filets d'air par des changements plus ou moins rapides de l'extension de ses ailes, leur angle d'incidence, l'écartement de ses rémiges ou de sa queue, le tout en essayant de garder la tête le plus immobile possible[2].
+Pour cela il s'arrête simplement sur place en étendant ses ailes, face au vent, en régulant constamment les filets d'air par des changements plus ou moins rapides de l'extension de ses ailes, leur angle d'incidence, l'écartement de ses rémiges ou de sa queue, le tout en essayant de garder la tête le plus immobile possible.
 Quand le vent est assez fort il lui arrive de battre des ailes pour rester sur place, un peu comme le faucon crécerelle, et éventuellement de laisser pendre ses pattes pour se stabiliser.
 Mais par temps calme il s'agit surtout de mouvements très légers, et il n'est pas rare de le voir complètement immobile dans le ciel, les ailes étendues, tel un cerf-volant.
 Quand il a repéré une proie, il se laisse tomber en pliant ses ailes, généralement les pattes en avant, d'un piqué assez rapide. Soit il descend jusqu'au sol d'un mouvement continu, pour attraper sa proie, soit il s'arrête à nouveau en vol à faible hauteur, scrute encore le sol, et achève sa descente, ou bien s'envole à nouveau pour recommencer ailleurs.
@@ -662,7 +684,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Circa%C3%A8te_Jean-le-Blanc</t>
+          <t>Circaète_Jean-le-Blanc</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,7 +702,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Mi-avril, la femelle pond un seul œuf blanc dans un nid volumineux construit sur des branches basses. C'est d'ailleurs surtout elle qui en assure la couvaison pendant 45-47 jours.
 Le petit quitte le nid entre 70 et 75 jours, mais reste dépendant des adultes pendant un mois encore. Une seule ponte est effectuée par an.
@@ -694,7 +718,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Circa%C3%A8te_Jean-le-Blanc</t>
+          <t>Circaète_Jean-le-Blanc</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -712,7 +736,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid du Circaète est relativement petit comparé à celui d'autres rapaces de sa taille. Il est construit dans un arbre, pin ou chêne vert suivant la région. Il n'est pas installé dans une fourche (comme celui des Buses ou des Vautours) mais placé le plus souvent en position latérale, ou bien au sommet d'un arbre tordu ou étêté, car du fait de son envergure le Circaète a besoin d'assez de place et d'un accès facile pour se poser. Plus rarement, il peut nicher sur une paroi rocheuse.
 La femelle ne pond qu'un seul œuf, entre fin mars et mi-avril, elle le couve pendant environ 45 jours.
@@ -737,7 +763,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Circa%C3%A8te_Jean-le-Blanc</t>
+          <t>Circaète_Jean-le-Blanc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,9 +781,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Circaète Jean-le-Blanc bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est inscrit à l'annexe I de la directive Oiseaux de l'Union européenne[3]. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids et de détruire, altérer ou dégrader leur milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Circaète Jean-le-Blanc bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est inscrit à l'annexe I de la directive Oiseaux de l'Union européenne. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids et de détruire, altérer ou dégrader leur milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
 </t>
         </is>
       </c>
@@ -768,7 +796,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Circa%C3%A8te_Jean-le-Blanc</t>
+          <t>Circaète_Jean-le-Blanc</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +814,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par deux sous-espèces :
 Circaetus gallicus gallicus : paléarctique occidental et sous-continent indien ;
